--- a/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
+++ b/InputData/web-app/OCCF/Output Currency Conversion Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.1-mexico-wipA\InputData\web-app\OCCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\web-app\OCCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OCCF-DpLOCU" sheetId="2" r:id="rId2"/>
-    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId3"/>
+    <sheet name="OCCF-DpMOCU" sheetId="4" r:id="rId3"/>
+    <sheet name="OCCF-DpSOCU" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Source:</t>
   </si>
@@ -53,6 +54,9 @@
     <t>One Large Output Currency Unit</t>
   </si>
   <si>
+    <t>For the U.S. model:</t>
+  </si>
+  <si>
     <t>Large Output Currency Unit</t>
   </si>
   <si>
@@ -68,16 +72,43 @@
     <t>OCCF Dollars per Small Output Currency Unit</t>
   </si>
   <si>
-    <t>none needed for Mexico model</t>
-  </si>
-  <si>
-    <t>For the Mexico model:</t>
-  </si>
-  <si>
-    <t>billion 2012 U.S. dollars</t>
-  </si>
-  <si>
-    <t>2012 U.S. dollars</t>
+    <t>2018 dollars</t>
+  </si>
+  <si>
+    <t>See cpi.xlsx</t>
+  </si>
+  <si>
+    <t>2012 dollars are worth more than 2018 dollars, so we need a</t>
+  </si>
+  <si>
+    <t>value less than 1 in this variable.</t>
+  </si>
+  <si>
+    <t>This is why we multiply, not divide, by the conversion</t>
+  </si>
+  <si>
+    <t>factor above.</t>
+  </si>
+  <si>
+    <t>Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>OCCF Dollars per Medium Output Currency Unit</t>
+  </si>
+  <si>
+    <t>Recall, this variable is "dollars per large/medium/small currency output unit"</t>
+  </si>
+  <si>
+    <t>2019 dollars per 2012 dollar</t>
+  </si>
+  <si>
+    <t>which in this case is "2012 dollars per 2019 dollar."</t>
+  </si>
+  <si>
+    <t>million 2019 dollars</t>
+  </si>
+  <si>
+    <t>billion 2019 dollars</t>
   </si>
 </sst>
 </file>
@@ -127,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -138,6 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,93 +474,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>0.89805481563188172</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -546,23 +634,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <f>10^9</f>
-        <v>1000000000</v>
+        <f>10^9*About!$A$26</f>
+        <v>898054815.63188171</v>
       </c>
     </row>
   </sheetData>
@@ -579,22 +667,56 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="8">
+        <f>10^6*About!$A$26</f>
+        <v>898054.81563188171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="31.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <f>1*About!A26</f>
+        <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
